--- a/GraphExperimentLibraryForCS/output/test.xlsx
+++ b/GraphExperimentLibraryForCS/output/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Source\Repos\Graph-Experiment-Library\GraphExperimentLibraryForCS\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Source\Repos\Graph-Experiment-Library\GraphExperimentLibraryForCS\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>SuccessCount / Count</t>
   </si>
@@ -692,38 +692,9 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -804,31 +775,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99639999999999995</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96140000000000003</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88219999999999998</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77290000000000003</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61219999999999997</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43580000000000002</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26629999999999998</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25869999999999999</c:v>
+                  <c:v>0.25800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92020000000000002</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B452-4C32-9541-1454833783EF}"/>
+              <c16:uniqueId val="{00000000-7C7E-4998-9595-2914589E820E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -915,31 +886,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98919999999999997</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95230000000000004</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87909999999999999</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77100000000000002</c:v>
+                  <c:v>0.77400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6179</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26640000000000003</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25679999999999997</c:v>
+                  <c:v>0.25800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92049999999999998</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +918,229 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B452-4C32-9541-1454833783EF}"/>
+              <c16:uniqueId val="{00000001-7C7E-4998-9595-2914589E820E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuccessCount / Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C7E-4998-9595-2914589E820E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuccessCount / Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C1D1-43AB-BAE1-1B8A8A01675B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -960,16 +1153,85 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="471819648"/>
-        <c:axId val="471821288"/>
+        <c:axId val="465006432"/>
+        <c:axId val="465006760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471819648"/>
+        <c:axId val="465006432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>タイトル</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1007,7 +1269,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471821288"/>
+        <c:crossAx val="465006760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,9 +1277,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471821288"/>
+        <c:axId val="465006760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1035,7 +1298,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>タイトル</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1066,9 +1384,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471819648"/>
+        <c:crossAx val="465006432"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1706,16 +2024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,12 +2350,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2082,31 +2686,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99639999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="D2">
-        <v>0.96140000000000003</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E2">
-        <v>0.88219999999999998</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F2">
-        <v>0.77290000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G2">
-        <v>0.61219999999999997</v>
+        <v>0.624</v>
       </c>
       <c r="H2">
-        <v>0.43580000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.26629999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="J2">
-        <v>0.25869999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K2">
-        <v>0.92020000000000002</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2117,31 +2721,101 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.98919999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="D3">
-        <v>0.95230000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E3">
-        <v>0.87909999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F3">
-        <v>0.77100000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G3">
-        <v>0.6179</v>
+        <v>0.624</v>
       </c>
       <c r="H3">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.26640000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
-        <v>0.25679999999999997</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K3">
-        <v>0.92049999999999998</v>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.996</v>
+      </c>
+      <c r="D4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G4">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.504</v>
+      </c>
+      <c r="I4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99</v>
+      </c>
+      <c r="D5">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0.254</v>
+      </c>
+      <c r="K5">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
